--- a/203-ajout-cas-usage-saisie-offre/ig/StructureDefinition-ror-organization.xlsx
+++ b/203-ajout-cas-usage-saisie-offre/ig/StructureDefinition-ror-organization.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-07T09:25:04+00:00</t>
+    <t>2024-02-07T09:30:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/203-ajout-cas-usage-saisie-offre/ig/StructureDefinition-ror-organization.xlsx
+++ b/203-ajout-cas-usage-saisie-offre/ig/StructureDefinition-ror-organization.xlsx
@@ -9,6 +9,9 @@
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AJ$251</definedName>
+  </definedNames>
 </workbook>
 </file>
 
@@ -54,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-07T09:30:33+00:00</t>
+    <t>2024-02-21T11:25:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1767,9 +1770,7 @@
     <t>Organization.name</t>
   </si>
   <si>
-    <t>raisonSociale (EJ) : Raison sociale complète de l'entité juridique
-ou nom de l'EG :  Nom sous lequel l'entité géographique exerce son activité
-ou nom de l'OI : Nom de l'organisation interne</t>
+    <t>raisonSociale (EJ) ou denominationEG (EG) ou nomOI (OI) - Remarque : Décalage provisoire de la cardinalité par rapport au modèle d'exposition (1..1)</t>
   </si>
   <si>
     <t>A name associated with the organization.</t>
@@ -1797,7 +1798,7 @@
 </t>
   </si>
   <si>
-    <t>complementRaisonSociale (EJ) : Suite de la raison sociale, si elle existe</t>
+    <t>complementRaisonSociale (EJ) ou complementDenominationEG (EG)</t>
   </si>
   <si>
     <t>Extension créée dans le cadre du ROR pour nom complémentaire de l'EJ (complementRaisonSociale)  ou nom complémentaire de l'EG (DenominationEG)</t>
@@ -1818,7 +1819,7 @@
     <t>Organization.alias</t>
   </si>
   <si>
-    <t>nom opérationnel (EG) : l’appellation communément utilisée par les acteurs de santé pour désigner l'entité géographique</t>
+    <t>nomOperationnel (EG) : l’appellation communément utilisée par les acteurs de santé pour désigner l'entité géographique</t>
   </si>
   <si>
     <t>A list of alternate names that the organization is known as, or was known as in the past.</t>
@@ -2486,20 +2487,20 @@
     <t>The base name of a roadway or artery recognized by a municipality (excluding street type and direction).</t>
   </si>
   <si>
-    <t>Organization.address.line.extension:precinct</t>
-  </si>
-  <si>
-    <t>precinct</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {iso21090-ADXP-precinct}
+    <t>Organization.address.line.extension:lieuDit</t>
+  </si>
+  <si>
+    <t>lieuDit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/annuaire/StructureDefinition/as-ext-lieu-dit}
 </t>
   </si>
   <si>
     <t>lieuDit (Adresse)</t>
   </si>
   <si>
-    <t>A subsection of a municipality.</t>
+    <t>Extension créée dans le cadre du ROR pour indiquer le lieu dit</t>
   </si>
   <si>
     <t>Organization.address.line.value</t>
@@ -3040,6 +3041,21 @@
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="22"/>
+        <i val="true"/>
+      </font>
+    </dxf>
+  </dxfs>
 </styleSheet>
 </file>
 
@@ -3370,7 +3386,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
         <v>29</v>
       </c>
@@ -3470,7 +3486,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
         <v>79</v>
       </c>
@@ -3572,7 +3588,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
         <v>87</v>
       </c>
@@ -3672,7 +3688,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
         <v>94</v>
       </c>
@@ -3772,7 +3788,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
         <v>99</v>
       </c>
@@ -3874,7 +3890,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
         <v>110</v>
       </c>
@@ -3976,7 +3992,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
         <v>115</v>
       </c>
@@ -3995,7 +4011,7 @@
         <v>80</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="I8" t="s" s="2">
         <v>72</v>
@@ -4078,7 +4094,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
         <v>121</v>
       </c>
@@ -4180,7 +4196,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
         <v>127</v>
       </c>
@@ -4282,7 +4298,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
         <v>133</v>
       </c>
@@ -4384,7 +4400,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
         <v>142</v>
       </c>
@@ -4486,7 +4502,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
         <v>151</v>
       </c>
@@ -4507,7 +4523,7 @@
         <v>80</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="I13" t="s" s="2">
         <v>72</v>
@@ -4588,7 +4604,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
         <v>155</v>
       </c>
@@ -4690,7 +4706,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
         <v>160</v>
       </c>
@@ -4792,7 +4808,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
         <v>169</v>
       </c>
@@ -4894,7 +4910,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
         <v>176</v>
       </c>
@@ -4996,7 +5012,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
         <v>183</v>
       </c>
@@ -5096,7 +5112,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
         <v>187</v>
       </c>
@@ -5200,7 +5216,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
         <v>192</v>
       </c>
@@ -5304,7 +5320,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
         <v>195</v>
       </c>
@@ -5408,7 +5424,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
         <v>199</v>
       </c>
@@ -5429,7 +5445,7 @@
         <v>74</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="I22" t="s" s="2">
         <v>72</v>
@@ -5510,7 +5526,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
         <v>204</v>
       </c>
@@ -5531,7 +5547,7 @@
         <v>74</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="I23" t="s" s="2">
         <v>72</v>
@@ -5612,7 +5628,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
         <v>209</v>
       </c>
@@ -5633,7 +5649,7 @@
         <v>74</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>72</v>
@@ -5714,7 +5730,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
         <v>214</v>
       </c>
@@ -5735,7 +5751,7 @@
         <v>80</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>72</v>
@@ -5816,7 +5832,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
         <v>219</v>
       </c>
@@ -5837,7 +5853,7 @@
         <v>80</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="I26" t="s" s="2">
         <v>72</v>
@@ -5918,7 +5934,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
         <v>224</v>
       </c>
@@ -5939,7 +5955,7 @@
         <v>80</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="I27" t="s" s="2">
         <v>72</v>
@@ -6020,7 +6036,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
         <v>229</v>
       </c>
@@ -6041,7 +6057,7 @@
         <v>80</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="I28" t="s" s="2">
         <v>72</v>
@@ -6122,7 +6138,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
         <v>234</v>
       </c>
@@ -6143,7 +6159,7 @@
         <v>80</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="I29" t="s" s="2">
         <v>72</v>
@@ -6224,7 +6240,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
         <v>239</v>
       </c>
@@ -6245,7 +6261,7 @@
         <v>80</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="I30" t="s" s="2">
         <v>72</v>
@@ -6326,7 +6342,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
         <v>244</v>
       </c>
@@ -6347,7 +6363,7 @@
         <v>80</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>72</v>
@@ -6428,7 +6444,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
         <v>249</v>
       </c>
@@ -6449,7 +6465,7 @@
         <v>80</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="I32" t="s" s="2">
         <v>72</v>
@@ -6530,7 +6546,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
         <v>254</v>
       </c>
@@ -6551,7 +6567,7 @@
         <v>80</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="I33" t="s" s="2">
         <v>72</v>
@@ -6632,7 +6648,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
         <v>259</v>
       </c>
@@ -6653,7 +6669,7 @@
         <v>80</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="I34" t="s" s="2">
         <v>72</v>
@@ -6734,7 +6750,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
         <v>262</v>
       </c>
@@ -6755,7 +6771,7 @@
         <v>80</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="I35" t="s" s="2">
         <v>72</v>
@@ -6836,7 +6852,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
         <v>267</v>
       </c>
@@ -6857,7 +6873,7 @@
         <v>80</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>72</v>
@@ -6938,7 +6954,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
         <v>272</v>
       </c>
@@ -6959,7 +6975,7 @@
         <v>80</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="I37" t="s" s="2">
         <v>72</v>
@@ -7040,7 +7056,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
         <v>277</v>
       </c>
@@ -7144,7 +7160,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
         <v>282</v>
       </c>
@@ -7163,7 +7179,7 @@
         <v>74</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="I39" t="s" s="2">
         <v>72</v>
@@ -7244,7 +7260,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
         <v>289</v>
       </c>
@@ -7344,7 +7360,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
         <v>290</v>
       </c>
@@ -7446,7 +7462,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
         <v>291</v>
       </c>
@@ -7550,7 +7566,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
         <v>299</v>
       </c>
@@ -7654,7 +7670,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
         <v>308</v>
       </c>
@@ -7758,7 +7774,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
         <v>315</v>
       </c>
@@ -7860,7 +7876,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
         <v>321</v>
       </c>
@@ -7962,7 +7978,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
         <v>328</v>
       </c>
@@ -8064,7 +8080,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
         <v>335</v>
       </c>
@@ -8085,7 +8101,7 @@
         <v>80</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="I48" t="s" s="2">
         <v>72</v>
@@ -8168,7 +8184,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
         <v>338</v>
       </c>
@@ -8268,7 +8284,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
         <v>339</v>
       </c>
@@ -8370,7 +8386,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
         <v>340</v>
       </c>
@@ -8474,7 +8490,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
         <v>341</v>
       </c>
@@ -8493,7 +8509,7 @@
         <v>80</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="I52" t="s" s="2">
         <v>72</v>
@@ -8578,7 +8594,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
         <v>343</v>
       </c>
@@ -8682,7 +8698,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
         <v>345</v>
       </c>
@@ -8784,7 +8800,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
         <v>346</v>
       </c>
@@ -8886,7 +8902,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
         <v>347</v>
       </c>
@@ -8988,7 +9004,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
         <v>348</v>
       </c>
@@ -9009,7 +9025,7 @@
         <v>80</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="I57" t="s" s="2">
         <v>72</v>
@@ -9092,7 +9108,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
         <v>351</v>
       </c>
@@ -9192,7 +9208,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
         <v>352</v>
       </c>
@@ -9294,7 +9310,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
         <v>353</v>
       </c>
@@ -9398,7 +9414,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
         <v>354</v>
       </c>
@@ -9417,7 +9433,7 @@
         <v>80</v>
       </c>
       <c r="H61" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="I61" t="s" s="2">
         <v>72</v>
@@ -9502,7 +9518,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
         <v>356</v>
       </c>
@@ -9606,7 +9622,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
         <v>358</v>
       </c>
@@ -9708,7 +9724,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
         <v>359</v>
       </c>
@@ -9810,7 +9826,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
         <v>360</v>
       </c>
@@ -9912,7 +9928,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
         <v>361</v>
       </c>
@@ -9933,7 +9949,7 @@
         <v>80</v>
       </c>
       <c r="H66" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="I66" t="s" s="2">
         <v>72</v>
@@ -10016,7 +10032,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
         <v>364</v>
       </c>
@@ -10116,7 +10132,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
         <v>365</v>
       </c>
@@ -10218,7 +10234,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
         <v>366</v>
       </c>
@@ -10322,7 +10338,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
         <v>367</v>
       </c>
@@ -10341,7 +10357,7 @@
         <v>80</v>
       </c>
       <c r="H70" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="I70" t="s" s="2">
         <v>72</v>
@@ -10426,7 +10442,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
         <v>369</v>
       </c>
@@ -10530,7 +10546,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
         <v>371</v>
       </c>
@@ -10632,7 +10648,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
         <v>372</v>
       </c>
@@ -10734,7 +10750,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
         <v>373</v>
       </c>
@@ -10836,7 +10852,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
         <v>374</v>
       </c>
@@ -10857,7 +10873,7 @@
         <v>80</v>
       </c>
       <c r="H75" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="I75" t="s" s="2">
         <v>72</v>
@@ -10940,7 +10956,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
         <v>377</v>
       </c>
@@ -11040,7 +11056,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
         <v>378</v>
       </c>
@@ -11142,7 +11158,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
         <v>379</v>
       </c>
@@ -11246,7 +11262,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
         <v>380</v>
       </c>
@@ -11265,7 +11281,7 @@
         <v>80</v>
       </c>
       <c r="H79" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="I79" t="s" s="2">
         <v>72</v>
@@ -11350,7 +11366,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
         <v>382</v>
       </c>
@@ -11454,7 +11470,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
         <v>384</v>
       </c>
@@ -11556,7 +11572,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
         <v>385</v>
       </c>
@@ -11658,7 +11674,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
         <v>386</v>
       </c>
@@ -11760,7 +11776,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
         <v>387</v>
       </c>
@@ -11781,7 +11797,7 @@
         <v>80</v>
       </c>
       <c r="H84" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="I84" t="s" s="2">
         <v>72</v>
@@ -11864,7 +11880,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
         <v>390</v>
       </c>
@@ -11964,7 +11980,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
         <v>391</v>
       </c>
@@ -12066,7 +12082,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
         <v>392</v>
       </c>
@@ -12170,7 +12186,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
         <v>393</v>
       </c>
@@ -12189,7 +12205,7 @@
         <v>80</v>
       </c>
       <c r="H88" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="I88" t="s" s="2">
         <v>72</v>
@@ -12274,7 +12290,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
         <v>395</v>
       </c>
@@ -12378,7 +12394,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
         <v>397</v>
       </c>
@@ -12480,7 +12496,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
         <v>398</v>
       </c>
@@ -12582,7 +12598,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
         <v>399</v>
       </c>
@@ -12684,7 +12700,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
         <v>400</v>
       </c>
@@ -12705,7 +12721,7 @@
         <v>80</v>
       </c>
       <c r="H93" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="I93" t="s" s="2">
         <v>72</v>
@@ -12788,7 +12804,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
         <v>403</v>
       </c>
@@ -12888,7 +12904,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="95">
+    <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
         <v>404</v>
       </c>
@@ -12990,7 +13006,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
         <v>405</v>
       </c>
@@ -13094,7 +13110,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="97">
+    <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
         <v>406</v>
       </c>
@@ -13113,7 +13129,7 @@
         <v>80</v>
       </c>
       <c r="H97" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="I97" t="s" s="2">
         <v>72</v>
@@ -13198,7 +13214,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="98">
+    <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
         <v>408</v>
       </c>
@@ -13302,7 +13318,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="99">
+    <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
         <v>410</v>
       </c>
@@ -13404,7 +13420,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="100">
+    <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
         <v>411</v>
       </c>
@@ -13506,7 +13522,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="101">
+    <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
         <v>412</v>
       </c>
@@ -13608,7 +13624,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="102">
+    <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
         <v>413</v>
       </c>
@@ -13629,7 +13645,7 @@
         <v>80</v>
       </c>
       <c r="H102" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="I102" t="s" s="2">
         <v>72</v>
@@ -13712,7 +13728,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="103">
+    <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
         <v>415</v>
       </c>
@@ -13812,7 +13828,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="104">
+    <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
         <v>416</v>
       </c>
@@ -13914,7 +13930,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="105">
+    <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
         <v>417</v>
       </c>
@@ -14018,7 +14034,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="106">
+    <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
         <v>418</v>
       </c>
@@ -14037,7 +14053,7 @@
         <v>80</v>
       </c>
       <c r="H106" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="I106" t="s" s="2">
         <v>72</v>
@@ -14122,7 +14138,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="107">
+    <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
         <v>420</v>
       </c>
@@ -14226,7 +14242,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="108">
+    <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
         <v>422</v>
       </c>
@@ -14328,7 +14344,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="109">
+    <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
         <v>423</v>
       </c>
@@ -14430,7 +14446,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="110">
+    <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
         <v>424</v>
       </c>
@@ -14532,7 +14548,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="111">
+    <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
         <v>425</v>
       </c>
@@ -14638,7 +14654,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="112">
+    <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
         <v>432</v>
       </c>
@@ -14657,7 +14673,7 @@
         <v>74</v>
       </c>
       <c r="H112" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="I112" t="s" s="2">
         <v>72</v>
@@ -14740,7 +14756,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="113">
+    <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
         <v>440</v>
       </c>
@@ -14846,7 +14862,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="114">
+    <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
         <v>443</v>
       </c>
@@ -14946,7 +14962,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="115">
+    <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
         <v>445</v>
       </c>
@@ -15048,7 +15064,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="116">
+    <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
         <v>447</v>
       </c>
@@ -15152,7 +15168,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="117">
+    <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
         <v>454</v>
       </c>
@@ -15252,7 +15268,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="118">
+    <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
         <v>456</v>
       </c>
@@ -15354,7 +15370,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="119">
+    <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
         <v>458</v>
       </c>
@@ -15458,7 +15474,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="120">
+    <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
         <v>466</v>
       </c>
@@ -15560,7 +15576,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="121">
+    <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
         <v>472</v>
       </c>
@@ -15664,7 +15680,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="122">
+    <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
         <v>479</v>
       </c>
@@ -15768,7 +15784,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="123">
+    <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
         <v>485</v>
       </c>
@@ -15872,7 +15888,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="124">
+    <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
         <v>492</v>
       </c>
@@ -15976,7 +15992,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="125">
+    <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
         <v>499</v>
       </c>
@@ -16082,7 +16098,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="126">
+    <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
         <v>503</v>
       </c>
@@ -16182,7 +16198,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="127">
+    <row r="127" hidden="true">
       <c r="A127" t="s" s="2">
         <v>504</v>
       </c>
@@ -16284,7 +16300,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="128">
+    <row r="128" hidden="true">
       <c r="A128" t="s" s="2">
         <v>505</v>
       </c>
@@ -16388,7 +16404,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="129">
+    <row r="129" hidden="true">
       <c r="A129" t="s" s="2">
         <v>506</v>
       </c>
@@ -16488,7 +16504,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="130">
+    <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
         <v>507</v>
       </c>
@@ -16590,7 +16606,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="131">
+    <row r="131" hidden="true">
       <c r="A131" t="s" s="2">
         <v>508</v>
       </c>
@@ -16694,7 +16710,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="132">
+    <row r="132" hidden="true">
       <c r="A132" t="s" s="2">
         <v>511</v>
       </c>
@@ -16796,7 +16812,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="133">
+    <row r="133" hidden="true">
       <c r="A133" t="s" s="2">
         <v>512</v>
       </c>
@@ -16900,7 +16916,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="134">
+    <row r="134" hidden="true">
       <c r="A134" t="s" s="2">
         <v>513</v>
       </c>
@@ -17004,7 +17020,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="135">
+    <row r="135" hidden="true">
       <c r="A135" t="s" s="2">
         <v>514</v>
       </c>
@@ -17108,7 +17124,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="136">
+    <row r="136" hidden="true">
       <c r="A136" t="s" s="2">
         <v>515</v>
       </c>
@@ -17212,7 +17228,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="137">
+    <row r="137" hidden="true">
       <c r="A137" t="s" s="2">
         <v>516</v>
       </c>
@@ -17318,7 +17334,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="138">
+    <row r="138" hidden="true">
       <c r="A138" t="s" s="2">
         <v>520</v>
       </c>
@@ -17418,7 +17434,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="139">
+    <row r="139" hidden="true">
       <c r="A139" t="s" s="2">
         <v>521</v>
       </c>
@@ -17520,7 +17536,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="140">
+    <row r="140" hidden="true">
       <c r="A140" t="s" s="2">
         <v>522</v>
       </c>
@@ -17624,7 +17640,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="141">
+    <row r="141" hidden="true">
       <c r="A141" t="s" s="2">
         <v>523</v>
       </c>
@@ -17724,7 +17740,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="142">
+    <row r="142" hidden="true">
       <c r="A142" t="s" s="2">
         <v>524</v>
       </c>
@@ -17826,7 +17842,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="143">
+    <row r="143" hidden="true">
       <c r="A143" t="s" s="2">
         <v>525</v>
       </c>
@@ -17930,7 +17946,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="144">
+    <row r="144" hidden="true">
       <c r="A144" t="s" s="2">
         <v>528</v>
       </c>
@@ -18032,7 +18048,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="145">
+    <row r="145" hidden="true">
       <c r="A145" t="s" s="2">
         <v>529</v>
       </c>
@@ -18136,7 +18152,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="146">
+    <row r="146" hidden="true">
       <c r="A146" t="s" s="2">
         <v>530</v>
       </c>
@@ -18240,7 +18256,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="147">
+    <row r="147" hidden="true">
       <c r="A147" t="s" s="2">
         <v>531</v>
       </c>
@@ -18344,7 +18360,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="148">
+    <row r="148" hidden="true">
       <c r="A148" t="s" s="2">
         <v>532</v>
       </c>
@@ -18448,7 +18464,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="149">
+    <row r="149" hidden="true">
       <c r="A149" t="s" s="2">
         <v>533</v>
       </c>
@@ -18469,7 +18485,7 @@
         <v>80</v>
       </c>
       <c r="H149" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="I149" t="s" s="2">
         <v>72</v>
@@ -18552,7 +18568,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="150">
+    <row r="150" hidden="true">
       <c r="A150" t="s" s="2">
         <v>537</v>
       </c>
@@ -18573,7 +18589,7 @@
         <v>80</v>
       </c>
       <c r="H150" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="I150" t="s" s="2">
         <v>72</v>
@@ -18656,7 +18672,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="151">
+    <row r="151" hidden="true">
       <c r="A151" t="s" s="2">
         <v>541</v>
       </c>
@@ -18677,7 +18693,7 @@
         <v>80</v>
       </c>
       <c r="H151" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="I151" t="s" s="2">
         <v>72</v>
@@ -18760,7 +18776,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="152">
+    <row r="152" hidden="true">
       <c r="A152" t="s" s="2">
         <v>545</v>
       </c>
@@ -18781,7 +18797,7 @@
         <v>80</v>
       </c>
       <c r="H152" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="I152" t="s" s="2">
         <v>72</v>
@@ -18864,7 +18880,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="153">
+    <row r="153" hidden="true">
       <c r="A153" t="s" s="2">
         <v>549</v>
       </c>
@@ -18885,7 +18901,7 @@
         <v>80</v>
       </c>
       <c r="H153" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="I153" t="s" s="2">
         <v>72</v>
@@ -18968,7 +18984,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="154">
+    <row r="154" hidden="true">
       <c r="A154" t="s" s="2">
         <v>553</v>
       </c>
@@ -18987,7 +19003,7 @@
         <v>80</v>
       </c>
       <c r="H154" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="I154" t="s" s="2">
         <v>72</v>
@@ -19072,7 +19088,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="155">
+    <row r="155" hidden="true">
       <c r="A155" t="s" s="2">
         <v>558</v>
       </c>
@@ -19172,7 +19188,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="156">
+    <row r="156" hidden="true">
       <c r="A156" t="s" s="2">
         <v>559</v>
       </c>
@@ -19274,7 +19290,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="157">
+    <row r="157" hidden="true">
       <c r="A157" t="s" s="2">
         <v>560</v>
       </c>
@@ -19376,7 +19392,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="158">
+    <row r="158" hidden="true">
       <c r="A158" t="s" s="2">
         <v>565</v>
       </c>
@@ -19476,7 +19492,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="159">
+    <row r="159" hidden="true">
       <c r="A159" t="s" s="2">
         <v>569</v>
       </c>
@@ -19492,10 +19508,10 @@
         <v>73</v>
       </c>
       <c r="G159" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H159" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="I159" t="s" s="2">
         <v>72</v>
@@ -19580,7 +19596,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="160">
+    <row r="160" hidden="true">
       <c r="A160" t="s" s="2">
         <v>574</v>
       </c>
@@ -19599,7 +19615,7 @@
         <v>74</v>
       </c>
       <c r="H160" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="I160" t="s" s="2">
         <v>72</v>
@@ -19684,7 +19700,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="161">
+    <row r="161" hidden="true">
       <c r="A161" t="s" s="2">
         <v>582</v>
       </c>
@@ -19784,7 +19800,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="162">
+    <row r="162" hidden="true">
       <c r="A162" t="s" s="2">
         <v>583</v>
       </c>
@@ -19884,7 +19900,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="163">
+    <row r="163" hidden="true">
       <c r="A163" t="s" s="2">
         <v>585</v>
       </c>
@@ -19988,7 +20004,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="164">
+    <row r="164" hidden="true">
       <c r="A164" t="s" s="2">
         <v>589</v>
       </c>
@@ -20009,7 +20025,7 @@
         <v>80</v>
       </c>
       <c r="H164" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="I164" t="s" s="2">
         <v>72</v>
@@ -20090,7 +20106,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="165">
+    <row r="165" hidden="true">
       <c r="A165" t="s" s="2">
         <v>594</v>
       </c>
@@ -20111,7 +20127,7 @@
         <v>80</v>
       </c>
       <c r="H165" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="I165" t="s" s="2">
         <v>72</v>
@@ -20192,7 +20208,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="166">
+    <row r="166" hidden="true">
       <c r="A166" t="s" s="2">
         <v>599</v>
       </c>
@@ -20213,7 +20229,7 @@
         <v>80</v>
       </c>
       <c r="H166" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="I166" t="s" s="2">
         <v>72</v>
@@ -20294,7 +20310,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="167">
+    <row r="167" hidden="true">
       <c r="A167" t="s" s="2">
         <v>604</v>
       </c>
@@ -20396,7 +20412,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="168">
+    <row r="168" hidden="true">
       <c r="A168" t="s" s="2">
         <v>611</v>
       </c>
@@ -20415,7 +20431,7 @@
         <v>80</v>
       </c>
       <c r="H168" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="I168" t="s" s="2">
         <v>72</v>
@@ -20500,7 +20516,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="169">
+    <row r="169" hidden="true">
       <c r="A169" t="s" s="2">
         <v>617</v>
       </c>
@@ -20604,7 +20620,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="170">
+    <row r="170" hidden="true">
       <c r="A170" t="s" s="2">
         <v>625</v>
       </c>
@@ -20706,7 +20722,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="171">
+    <row r="171" hidden="true">
       <c r="A171" t="s" s="2">
         <v>631</v>
       </c>
@@ -20808,7 +20824,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="172">
+    <row r="172" hidden="true">
       <c r="A172" t="s" s="2">
         <v>635</v>
       </c>
@@ -20827,7 +20843,7 @@
         <v>80</v>
       </c>
       <c r="H172" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="I172" t="s" s="2">
         <v>72</v>
@@ -20912,7 +20928,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="173">
+    <row r="173" hidden="true">
       <c r="A173" t="s" s="2">
         <v>643</v>
       </c>
@@ -21012,7 +21028,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="174">
+    <row r="174" hidden="true">
       <c r="A174" t="s" s="2">
         <v>644</v>
       </c>
@@ -21114,7 +21130,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="175">
+    <row r="175" hidden="true">
       <c r="A175" t="s" s="2">
         <v>645</v>
       </c>
@@ -21216,7 +21232,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="176">
+    <row r="176" hidden="true">
       <c r="A176" t="s" s="2">
         <v>648</v>
       </c>
@@ -21316,7 +21332,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="177">
+    <row r="177" hidden="true">
       <c r="A177" t="s" s="2">
         <v>650</v>
       </c>
@@ -21416,7 +21432,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="178">
+    <row r="178" hidden="true">
       <c r="A178" t="s" s="2">
         <v>652</v>
       </c>
@@ -21518,7 +21534,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="179">
+    <row r="179" hidden="true">
       <c r="A179" t="s" s="2">
         <v>659</v>
       </c>
@@ -21616,7 +21632,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="180">
+    <row r="180" hidden="true">
       <c r="A180" t="s" s="2">
         <v>665</v>
       </c>
@@ -21637,7 +21653,7 @@
         <v>80</v>
       </c>
       <c r="H180" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="I180" t="s" s="2">
         <v>72</v>
@@ -21720,7 +21736,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="181">
+    <row r="181" hidden="true">
       <c r="A181" t="s" s="2">
         <v>671</v>
       </c>
@@ -21820,7 +21836,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="182">
+    <row r="182" hidden="true">
       <c r="A182" t="s" s="2">
         <v>672</v>
       </c>
@@ -21920,7 +21936,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="183">
+    <row r="183" hidden="true">
       <c r="A183" t="s" s="2">
         <v>673</v>
       </c>
@@ -22024,7 +22040,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="184">
+    <row r="184" hidden="true">
       <c r="A184" t="s" s="2">
         <v>677</v>
       </c>
@@ -22124,7 +22140,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="185">
+    <row r="185" hidden="true">
       <c r="A185" t="s" s="2">
         <v>679</v>
       </c>
@@ -22226,7 +22242,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="186">
+    <row r="186" hidden="true">
       <c r="A186" t="s" s="2">
         <v>681</v>
       </c>
@@ -22328,7 +22344,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="187">
+    <row r="187" hidden="true">
       <c r="A187" t="s" s="2">
         <v>683</v>
       </c>
@@ -22428,7 +22444,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="188">
+    <row r="188" hidden="true">
       <c r="A188" t="s" s="2">
         <v>686</v>
       </c>
@@ -22532,7 +22548,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="189">
+    <row r="189" hidden="true">
       <c r="A189" t="s" s="2">
         <v>690</v>
       </c>
@@ -22632,7 +22648,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="190">
+    <row r="190" hidden="true">
       <c r="A190" t="s" s="2">
         <v>691</v>
       </c>
@@ -22734,7 +22750,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="191">
+    <row r="191" hidden="true">
       <c r="A191" t="s" s="2">
         <v>692</v>
       </c>
@@ -22836,7 +22852,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="192">
+    <row r="192" hidden="true">
       <c r="A192" t="s" s="2">
         <v>693</v>
       </c>
@@ -22936,7 +22952,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="193">
+    <row r="193" hidden="true">
       <c r="A193" t="s" s="2">
         <v>694</v>
       </c>
@@ -22957,7 +22973,7 @@
         <v>80</v>
       </c>
       <c r="H193" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="I193" t="s" s="2">
         <v>72</v>
@@ -23038,7 +23054,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="194">
+    <row r="194" hidden="true">
       <c r="A194" t="s" s="2">
         <v>698</v>
       </c>
@@ -23140,7 +23156,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="195">
+    <row r="195" hidden="true">
       <c r="A195" t="s" s="2">
         <v>700</v>
       </c>
@@ -23240,7 +23256,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="196">
+    <row r="196" hidden="true">
       <c r="A196" t="s" s="2">
         <v>702</v>
       </c>
@@ -23344,7 +23360,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="197">
+    <row r="197" hidden="true">
       <c r="A197" t="s" s="2">
         <v>711</v>
       </c>
@@ -23446,7 +23462,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="198">
+    <row r="198" hidden="true">
       <c r="A198" t="s" s="2">
         <v>719</v>
       </c>
@@ -23550,7 +23566,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="199">
+    <row r="199" hidden="true">
       <c r="A199" t="s" s="2">
         <v>726</v>
       </c>
@@ -23652,7 +23668,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="200">
+    <row r="200" hidden="true">
       <c r="A200" t="s" s="2">
         <v>731</v>
       </c>
@@ -23752,7 +23768,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="201">
+    <row r="201" hidden="true">
       <c r="A201" t="s" s="2">
         <v>732</v>
       </c>
@@ -23854,7 +23870,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="202">
+    <row r="202" hidden="true">
       <c r="A202" t="s" s="2">
         <v>733</v>
       </c>
@@ -23875,7 +23891,7 @@
         <v>80</v>
       </c>
       <c r="H202" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="I202" t="s" s="2">
         <v>72</v>
@@ -23956,7 +23972,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="203">
+    <row r="203" hidden="true">
       <c r="A203" t="s" s="2">
         <v>738</v>
       </c>
@@ -23977,7 +23993,7 @@
         <v>80</v>
       </c>
       <c r="H203" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="I203" t="s" s="2">
         <v>72</v>
@@ -24058,7 +24074,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="204">
+    <row r="204" hidden="true">
       <c r="A204" t="s" s="2">
         <v>743</v>
       </c>
@@ -24079,7 +24095,7 @@
         <v>80</v>
       </c>
       <c r="H204" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="I204" t="s" s="2">
         <v>72</v>
@@ -24160,7 +24176,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="205">
+    <row r="205" hidden="true">
       <c r="A205" t="s" s="2">
         <v>748</v>
       </c>
@@ -24181,7 +24197,7 @@
         <v>80</v>
       </c>
       <c r="H205" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="I205" t="s" s="2">
         <v>72</v>
@@ -24262,7 +24278,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="206">
+    <row r="206" hidden="true">
       <c r="A206" t="s" s="2">
         <v>753</v>
       </c>
@@ -24283,7 +24299,7 @@
         <v>80</v>
       </c>
       <c r="H206" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="I206" t="s" s="2">
         <v>72</v>
@@ -24364,7 +24380,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="207">
+    <row r="207" hidden="true">
       <c r="A207" t="s" s="2">
         <v>758</v>
       </c>
@@ -24464,7 +24480,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="208">
+    <row r="208" hidden="true">
       <c r="A208" t="s" s="2">
         <v>760</v>
       </c>
@@ -24566,7 +24582,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="209">
+    <row r="209" hidden="true">
       <c r="A209" t="s" s="2">
         <v>762</v>
       </c>
@@ -24668,7 +24684,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="210">
+    <row r="210" hidden="true">
       <c r="A210" t="s" s="2">
         <v>765</v>
       </c>
@@ -24764,7 +24780,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="211">
+    <row r="211" hidden="true">
       <c r="A211" t="s" s="2">
         <v>770</v>
       </c>
@@ -24866,7 +24882,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="212">
+    <row r="212" hidden="true">
       <c r="A212" t="s" s="2">
         <v>774</v>
       </c>
@@ -24887,7 +24903,7 @@
         <v>80</v>
       </c>
       <c r="H212" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="I212" t="s" s="2">
         <v>72</v>
@@ -24968,7 +24984,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="213">
+    <row r="213" hidden="true">
       <c r="A213" t="s" s="2">
         <v>779</v>
       </c>
@@ -24986,10 +25002,10 @@
         <v>73</v>
       </c>
       <c r="G213" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H213" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="I213" t="s" s="2">
         <v>72</v>
@@ -25070,7 +25086,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="214">
+    <row r="214" hidden="true">
       <c r="A214" t="s" s="2">
         <v>784</v>
       </c>
@@ -25088,10 +25104,10 @@
         <v>73</v>
       </c>
       <c r="G214" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H214" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="I214" t="s" s="2">
         <v>72</v>
@@ -25172,7 +25188,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="215">
+    <row r="215" hidden="true">
       <c r="A215" t="s" s="2">
         <v>789</v>
       </c>
@@ -25272,7 +25288,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="216">
+    <row r="216" hidden="true">
       <c r="A216" t="s" s="2">
         <v>790</v>
       </c>
@@ -25291,7 +25307,7 @@
         <v>80</v>
       </c>
       <c r="H216" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="I216" t="s" s="2">
         <v>72</v>
@@ -25374,7 +25390,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="217">
+    <row r="217" hidden="true">
       <c r="A217" t="s" s="2">
         <v>796</v>
       </c>
@@ -25476,7 +25492,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="218">
+    <row r="218" hidden="true">
       <c r="A218" t="s" s="2">
         <v>803</v>
       </c>
@@ -25578,7 +25594,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="219">
+    <row r="219" hidden="true">
       <c r="A219" t="s" s="2">
         <v>808</v>
       </c>
@@ -25597,7 +25613,7 @@
         <v>80</v>
       </c>
       <c r="H219" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="I219" t="s" s="2">
         <v>72</v>
@@ -25680,7 +25696,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="220">
+    <row r="220" hidden="true">
       <c r="A220" t="s" s="2">
         <v>814</v>
       </c>
@@ -25782,7 +25798,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="221">
+    <row r="221" hidden="true">
       <c r="A221" t="s" s="2">
         <v>819</v>
       </c>
@@ -25886,7 +25902,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="222">
+    <row r="222" hidden="true">
       <c r="A222" t="s" s="2">
         <v>825</v>
       </c>
@@ -25905,7 +25921,7 @@
         <v>80</v>
       </c>
       <c r="H222" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="I222" t="s" s="2">
         <v>72</v>
@@ -25990,7 +26006,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="223">
+    <row r="223" hidden="true">
       <c r="A223" t="s" s="2">
         <v>831</v>
       </c>
@@ -26090,7 +26106,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="224">
+    <row r="224" hidden="true">
       <c r="A224" t="s" s="2">
         <v>832</v>
       </c>
@@ -26192,7 +26208,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="225">
+    <row r="225" hidden="true">
       <c r="A225" t="s" s="2">
         <v>833</v>
       </c>
@@ -26294,7 +26310,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="226">
+    <row r="226" hidden="true">
       <c r="A226" t="s" s="2">
         <v>839</v>
       </c>
@@ -26396,7 +26412,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="227">
+    <row r="227" hidden="true">
       <c r="A227" t="s" s="2">
         <v>845</v>
       </c>
@@ -26498,7 +26514,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="228">
+    <row r="228" hidden="true">
       <c r="A228" t="s" s="2">
         <v>850</v>
       </c>
@@ -26600,7 +26616,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="229">
+    <row r="229" hidden="true">
       <c r="A229" t="s" s="2">
         <v>855</v>
       </c>
@@ -26704,7 +26720,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="230">
+    <row r="230" hidden="true">
       <c r="A230" t="s" s="2">
         <v>861</v>
       </c>
@@ -26804,7 +26820,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="231">
+    <row r="231" hidden="true">
       <c r="A231" t="s" s="2">
         <v>862</v>
       </c>
@@ -26906,7 +26922,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="232">
+    <row r="232" hidden="true">
       <c r="A232" t="s" s="2">
         <v>863</v>
       </c>
@@ -26927,7 +26943,7 @@
         <v>80</v>
       </c>
       <c r="H232" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="I232" t="s" s="2">
         <v>72</v>
@@ -27008,7 +27024,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="233">
+    <row r="233" hidden="true">
       <c r="A233" t="s" s="2">
         <v>868</v>
       </c>
@@ -27029,7 +27045,7 @@
         <v>80</v>
       </c>
       <c r="H233" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="I233" t="s" s="2">
         <v>72</v>
@@ -27110,7 +27126,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="234">
+    <row r="234" hidden="true">
       <c r="A234" t="s" s="2">
         <v>873</v>
       </c>
@@ -27131,7 +27147,7 @@
         <v>80</v>
       </c>
       <c r="H234" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="I234" t="s" s="2">
         <v>72</v>
@@ -27212,7 +27228,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="235">
+    <row r="235" hidden="true">
       <c r="A235" t="s" s="2">
         <v>878</v>
       </c>
@@ -27316,7 +27332,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="236">
+    <row r="236" hidden="true">
       <c r="A236" t="s" s="2">
         <v>883</v>
       </c>
@@ -27335,7 +27351,7 @@
         <v>80</v>
       </c>
       <c r="H236" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="I236" t="s" s="2">
         <v>72</v>
@@ -27418,7 +27434,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="237">
+    <row r="237" hidden="true">
       <c r="A237" t="s" s="2">
         <v>889</v>
       </c>
@@ -27437,7 +27453,7 @@
         <v>80</v>
       </c>
       <c r="H237" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="I237" t="s" s="2">
         <v>72</v>
@@ -27522,7 +27538,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="238">
+    <row r="238" hidden="true">
       <c r="A238" t="s" s="2">
         <v>895</v>
       </c>
@@ -27624,7 +27640,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="239">
+    <row r="239" hidden="true">
       <c r="A239" t="s" s="2">
         <v>899</v>
       </c>
@@ -27724,7 +27740,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="240">
+    <row r="240" hidden="true">
       <c r="A240" t="s" s="2">
         <v>900</v>
       </c>
@@ -27824,7 +27840,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="241">
+    <row r="241" hidden="true">
       <c r="A241" t="s" s="2">
         <v>901</v>
       </c>
@@ -27928,7 +27944,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="242">
+    <row r="242" hidden="true">
       <c r="A242" t="s" s="2">
         <v>902</v>
       </c>
@@ -27949,7 +27965,7 @@
         <v>80</v>
       </c>
       <c r="H242" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="I242" t="s" s="2">
         <v>72</v>
@@ -28030,7 +28046,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="243">
+    <row r="243" hidden="true">
       <c r="A243" t="s" s="2">
         <v>903</v>
       </c>
@@ -28051,7 +28067,7 @@
         <v>80</v>
       </c>
       <c r="H243" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="I243" t="s" s="2">
         <v>72</v>
@@ -28132,7 +28148,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="244">
+    <row r="244" hidden="true">
       <c r="A244" t="s" s="2">
         <v>904</v>
       </c>
@@ -28153,7 +28169,7 @@
         <v>80</v>
       </c>
       <c r="H244" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="I244" t="s" s="2">
         <v>72</v>
@@ -28234,7 +28250,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="245">
+    <row r="245" hidden="true">
       <c r="A245" t="s" s="2">
         <v>906</v>
       </c>
@@ -28336,7 +28352,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="246">
+    <row r="246" hidden="true">
       <c r="A246" t="s" s="2">
         <v>907</v>
       </c>
@@ -28355,7 +28371,7 @@
         <v>80</v>
       </c>
       <c r="H246" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="I246" t="s" s="2">
         <v>72</v>
@@ -28440,7 +28456,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="247">
+    <row r="247" hidden="true">
       <c r="A247" t="s" s="2">
         <v>908</v>
       </c>
@@ -28544,7 +28560,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="248">
+    <row r="248" hidden="true">
       <c r="A248" t="s" s="2">
         <v>909</v>
       </c>
@@ -28646,7 +28662,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="249">
+    <row r="249" hidden="true">
       <c r="A249" t="s" s="2">
         <v>910</v>
       </c>
@@ -28748,7 +28764,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="250">
+    <row r="250" hidden="true">
       <c r="A250" t="s" s="2">
         <v>911</v>
       </c>
@@ -28852,7 +28868,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="251">
+    <row r="251" hidden="true">
       <c r="A251" t="s" s="2">
         <v>914</v>
       </c>
@@ -28957,6 +28973,24 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AJ251">
+    <filterColumn colId="6">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+    <filterColumn colId="26">
+      <filters blank="true"/>
+    </filterColumn>
+  </autoFilter>
+  <conditionalFormatting sqref="A2:AI250">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$G2&lt;&gt;"Y"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$Q2&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>